--- a/Dienynas JAVA 0826.xlsx
+++ b/Dienynas JAVA 0826.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="12960" windowHeight="6300" tabRatio="836" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="12960" windowHeight="6300" tabRatio="836" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1. Tarnyb. stotys" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="207">
   <si>
     <t>mėnuo / diena</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Egzaminas</t>
   </si>
   <si>
-    <t>Gediminas Glatkauskas</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -261,63 +258,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>06 21</t>
-  </si>
-  <si>
-    <t>06 26</t>
-  </si>
-  <si>
-    <t>06 27</t>
-  </si>
-  <si>
-    <t>06 28</t>
-  </si>
-  <si>
-    <t>07 01</t>
-  </si>
-  <si>
-    <t>07 02</t>
-  </si>
-  <si>
-    <t>07 03</t>
-  </si>
-  <si>
-    <t>07 04</t>
-  </si>
-  <si>
-    <t>07 05</t>
-  </si>
-  <si>
-    <t>07 08</t>
-  </si>
-  <si>
-    <t>07 09</t>
-  </si>
-  <si>
-    <t>07 10</t>
-  </si>
-  <si>
-    <t>07 11</t>
-  </si>
-  <si>
-    <t>06 13</t>
-  </si>
-  <si>
-    <t>06 14</t>
-  </si>
-  <si>
-    <t>06 17</t>
-  </si>
-  <si>
-    <t>06 18</t>
-  </si>
-  <si>
-    <t>06 19</t>
-  </si>
-  <si>
-    <t>06 20</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -351,9 +291,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>08 13</t>
-  </si>
-  <si>
     <t>08 26</t>
   </si>
   <si>
@@ -501,12 +438,6 @@
     <t>11 13</t>
   </si>
   <si>
-    <t>06 25</t>
-  </si>
-  <si>
-    <t>08 12</t>
-  </si>
-  <si>
     <t>09 10</t>
   </si>
   <si>
@@ -709,6 +640,9 @@
   </si>
   <si>
     <t>02 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1037,6 +971,17 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1054,17 +999,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1370,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,47 +1391,47 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
@@ -1512,60 +1446,60 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="37" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
@@ -1580,54 +1514,54 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -1642,7 +1576,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AB5" s="18" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="AC5" s="10">
         <v>8</v>
@@ -1683,7 +1617,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AB6" s="18" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AC6" s="10">
         <v>4</v>
@@ -1724,7 +1658,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="18" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="AC7" s="10">
         <v>4</v>
@@ -1765,7 +1699,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AB8" s="18" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="AC8" s="10">
         <v>8</v>
@@ -1806,7 +1740,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AB9" s="18" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="AC9" s="10">
         <v>8</v>
@@ -1847,7 +1781,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AB10" s="18" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="AC10" s="10">
         <v>8</v>
@@ -1888,7 +1822,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AB11" s="18" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="AC11" s="10">
         <v>8</v>
@@ -1929,7 +1863,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AB12" s="18" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="AC12" s="10">
         <v>8</v>
@@ -1970,7 +1904,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AB13" s="18" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="AC13" s="10">
         <v>8</v>
@@ -2011,7 +1945,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AB14" s="18" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="AC14" s="10">
         <v>8</v>
@@ -2052,7 +1986,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AB15" s="18" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="AC15" s="10">
         <v>5</v>
@@ -2093,7 +2027,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AB16" s="18" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="AC16" s="10">
         <v>3</v>
@@ -2134,7 +2068,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AB17" s="18" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="AC17" s="10">
         <v>8</v>
@@ -2204,23 +2138,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="43" customWidth="1"/>
     <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="6" style="49" customWidth="1"/>
+    <col min="5" max="5" width="6" style="43" customWidth="1"/>
     <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="6" style="49" customWidth="1"/>
+    <col min="7" max="7" width="6" style="43" customWidth="1"/>
     <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="10" width="6.140625" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="43" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="43" customWidth="1"/>
     <col min="14" max="14" width="5.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" customWidth="1"/>
@@ -2229,544 +2164,709 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="49">
+        <v>89</v>
+      </c>
+      <c r="C2" s="43">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="49">
+      <c r="D2" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="43">
         <v>2</v>
       </c>
-      <c r="F2" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="49">
+      <c r="F2" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="43">
         <v>5</v>
       </c>
-      <c r="H2" s="45" t="s">
-        <v>151</v>
+      <c r="H2" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="43">
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>185</v>
+        <v>162</v>
+      </c>
+      <c r="K2" s="43">
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>204</v>
+        <v>181</v>
+      </c>
+      <c r="M2" s="43">
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="O2" s="36"/>
       <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="49">
+        <v>90</v>
+      </c>
+      <c r="C3" s="43">
         <v>2</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="49">
+      <c r="D3" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="43">
         <v>2</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="49">
+      <c r="F3" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="43">
         <v>5</v>
       </c>
-      <c r="H3" s="45" t="s">
-        <v>152</v>
+      <c r="H3" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="43">
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>186</v>
+        <v>163</v>
+      </c>
+      <c r="K3" s="43">
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>205</v>
+        <v>182</v>
+      </c>
+      <c r="M3" s="43">
+        <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="O3" s="36"/>
       <c r="R3" s="35"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="49">
+        <v>91</v>
+      </c>
+      <c r="C4" s="43">
         <v>2</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="49">
+      <c r="D4" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="43">
         <v>4</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="49">
+      <c r="F4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="43">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>132</v>
+      </c>
+      <c r="I4" s="43">
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>206</v>
+        <v>164</v>
+      </c>
+      <c r="K4" s="43">
+        <v>7</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="43">
+        <v>7</v>
       </c>
       <c r="N4" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="O4" s="36"/>
       <c r="R4" s="35"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="49">
+        <v>92</v>
+      </c>
+      <c r="C5" s="43">
         <v>2</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="49">
+      <c r="D5" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="43">
         <v>4</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="49">
+      <c r="F5" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="43">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>133</v>
+      </c>
+      <c r="I5" s="43">
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>188</v>
-      </c>
-      <c r="L5" s="44" t="s">
-        <v>207</v>
+        <v>165</v>
+      </c>
+      <c r="K5" s="43">
+        <v>7</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="43">
+        <v>7</v>
       </c>
       <c r="O5" s="36"/>
       <c r="R5" s="35"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="49">
+        <v>93</v>
+      </c>
+      <c r="C6" s="43">
         <v>2</v>
       </c>
-      <c r="D6" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="D6" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="43">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="49">
+        <v>110</v>
+      </c>
+      <c r="G6" s="43">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>134</v>
+      </c>
+      <c r="I6" s="43">
+        <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>189</v>
-      </c>
-      <c r="L6" s="44" t="s">
-        <v>208</v>
+        <v>166</v>
+      </c>
+      <c r="K6" s="43">
+        <v>7</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" s="43">
+        <v>7</v>
       </c>
       <c r="O6" s="36"/>
       <c r="R6" s="35"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="49">
+        <v>99</v>
+      </c>
+      <c r="E7" s="43">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="49">
+        <v>111</v>
+      </c>
+      <c r="G7" s="43">
         <v>1</v>
       </c>
-      <c r="H7" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="L7" s="44" t="s">
-        <v>209</v>
+      <c r="H7" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="43">
+        <v>6</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="43">
+        <v>7</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="M7" s="43">
+        <v>7</v>
       </c>
       <c r="O7" s="36"/>
       <c r="R7" s="35"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="49">
+        <v>138</v>
+      </c>
+      <c r="E8" s="43">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="49">
+        <v>112</v>
+      </c>
+      <c r="G8" s="43">
         <v>1</v>
       </c>
-      <c r="H8" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>210</v>
+      <c r="H8" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="43">
+        <v>6</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="43">
+        <v>7</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="43">
+        <v>7</v>
       </c>
       <c r="O8" s="36"/>
       <c r="R8" s="35"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="49">
+        <v>139</v>
+      </c>
+      <c r="E9" s="43">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="49">
+        <v>113</v>
+      </c>
+      <c r="G9" s="43">
         <v>1</v>
       </c>
-      <c r="H9" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9" s="45" t="s">
-        <v>211</v>
+      <c r="H9" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="43">
+        <v>6</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="43">
+        <v>7</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9" s="43">
+        <v>7</v>
       </c>
       <c r="O9" s="36"/>
       <c r="R9" s="35"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="49">
+        <v>140</v>
+      </c>
+      <c r="E10" s="43">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="49">
+        <v>114</v>
+      </c>
+      <c r="G10" s="43">
         <v>1</v>
       </c>
-      <c r="H10" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="L10" s="45" t="s">
-        <v>212</v>
+      <c r="H10" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="43">
+        <v>6</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="43">
+        <v>7</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>189</v>
       </c>
       <c r="O10" s="36"/>
       <c r="R10" s="35"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="49">
+        <v>141</v>
+      </c>
+      <c r="E11" s="43">
         <v>4</v>
       </c>
-      <c r="F11" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="49">
+      <c r="F11" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="43">
         <v>1</v>
       </c>
-      <c r="H11" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="L11" s="45" t="s">
-        <v>213</v>
+      <c r="H11" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="43">
+        <v>6</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="43">
+        <v>7</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>190</v>
       </c>
       <c r="O11" s="36"/>
       <c r="R11" s="35"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="49">
+      <c r="D12" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="43">
         <v>4</v>
       </c>
-      <c r="F12" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="49">
+      <c r="F12" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="43">
         <v>1</v>
       </c>
-      <c r="H12" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>214</v>
+      <c r="H12" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" s="43">
+        <v>6</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="K12" s="43">
+        <v>7</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>191</v>
       </c>
       <c r="O12" s="36"/>
       <c r="R12" s="35"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="49">
+      <c r="D13" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="43">
         <v>4</v>
       </c>
-      <c r="F13" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="49">
+      <c r="F13" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="43">
         <v>1</v>
       </c>
-      <c r="H13" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>215</v>
+      <c r="H13" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="43">
+        <v>6</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="43">
+        <v>4</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>192</v>
       </c>
       <c r="O13" s="36"/>
       <c r="R13" s="35"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D14" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="49">
+      <c r="D14" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="43">
         <v>4</v>
       </c>
-      <c r="F14" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="49">
+      <c r="F14" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="43">
         <v>1</v>
       </c>
-      <c r="H14" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="J14" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="L14" s="47" t="s">
-        <v>216</v>
+      <c r="H14" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="43">
+        <v>6</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="43">
+        <v>4</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>193</v>
       </c>
       <c r="O14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="43">
+        <v>4</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="43">
+        <v>1</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="43">
+        <v>6</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="K15" s="43">
+        <v>2</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" s="36"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D16" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="43">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="49">
-        <v>4</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15" s="49">
+      <c r="G16" s="43">
         <v>1</v>
       </c>
-      <c r="H15" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="J15" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="L15" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="O15" s="36"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D16" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="49">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="49">
-        <v>1</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="L16" s="47" t="s">
-        <v>218</v>
+      <c r="H16" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="43">
+        <v>6</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="43">
+        <v>2</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>195</v>
       </c>
       <c r="O16" s="35"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="49">
+        <v>102</v>
+      </c>
+      <c r="E17" s="43">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="L17" s="47" t="s">
-        <v>219</v>
+        <v>122</v>
+      </c>
+      <c r="G17" s="43">
+        <v>3</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="43">
+        <v>6</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" s="43">
+        <v>2</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>196</v>
       </c>
       <c r="O17" s="35"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="49">
+        <v>103</v>
+      </c>
+      <c r="E18" s="43">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="J18" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="L18" s="47" t="s">
-        <v>220</v>
+        <v>123</v>
+      </c>
+      <c r="G18" s="43">
+        <v>3</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="43">
+        <v>7</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="43">
+        <v>2</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>197</v>
       </c>
       <c r="O18" s="35"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="49">
+        <v>145</v>
+      </c>
+      <c r="E19" s="43">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="L19" s="46" t="s">
-        <v>221</v>
+        <v>124</v>
+      </c>
+      <c r="G19" s="43">
+        <v>3</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="43">
+        <v>7</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" s="43">
+        <v>8</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>198</v>
       </c>
       <c r="O19" s="35"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="43">
+        <v>5</v>
+      </c>
+      <c r="F20" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="49">
-        <v>5</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="L20" s="46" t="s">
-        <v>222</v>
+      <c r="G20" s="43">
+        <v>3</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="43">
+        <v>7</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="43">
+        <v>8</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>199</v>
       </c>
       <c r="O20" s="35"/>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="49">
+        <v>146</v>
+      </c>
+      <c r="E21" s="43">
         <v>5</v>
       </c>
-      <c r="F21" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="J21" s="45"/>
-      <c r="L21" s="48" t="s">
-        <v>223</v>
+      <c r="F21" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="43">
+        <v>3</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" s="43">
+        <v>7</v>
+      </c>
+      <c r="J21" s="39"/>
+      <c r="L21" s="42" t="s">
+        <v>200</v>
       </c>
       <c r="O21" s="35"/>
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="49">
+      <c r="D22" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="43">
         <v>5</v>
       </c>
-      <c r="F22" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="J22" s="45"/>
-      <c r="L22" s="48" t="s">
-        <v>224</v>
+      <c r="F22" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="43">
+        <v>3</v>
+      </c>
+      <c r="J22" s="39"/>
+      <c r="L22" s="42" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="F23" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="L23" s="48" t="s">
-        <v>225</v>
+      <c r="F23" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="43">
+        <v>3</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="F24" s="44" t="s">
-        <v>150</v>
+      <c r="F24" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="43">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +2880,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2867,34 +2967,42 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="I3" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
@@ -2910,47 +3018,55 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="37" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
@@ -2966,41 +3082,49 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
@@ -3016,7 +3140,7 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
       <c r="AB5" s="18" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="AC5" s="10">
         <v>4</v>
@@ -3057,7 +3181,7 @@
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
       <c r="AB6" s="18" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="AC6" s="10">
         <v>4</v>
@@ -3098,7 +3222,7 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
       <c r="AB7" s="18" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="AC7" s="10">
         <v>8</v>
@@ -3138,7 +3262,9 @@
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
-      <c r="AB8" s="18"/>
+      <c r="AB8" s="18" t="s">
+        <v>175</v>
+      </c>
       <c r="AC8" s="10">
         <v>8</v>
       </c>
@@ -3178,7 +3304,7 @@
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
       <c r="AB9" s="18" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="AC9" s="10">
         <v>8</v>
@@ -3219,7 +3345,7 @@
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
       <c r="AB10" s="18" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="AC10" s="10">
         <v>8</v>
@@ -3259,7 +3385,9 @@
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
-      <c r="AB11" s="18"/>
+      <c r="AB11" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="AC11" s="10">
         <v>8</v>
       </c>
@@ -3338,7 +3466,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
       <c r="AB13" s="18" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AC13" s="10">
         <v>8</v>
@@ -3378,7 +3506,9 @@
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
-      <c r="AB14" s="18"/>
+      <c r="AB14" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="AC14" s="10">
         <v>8</v>
       </c>
@@ -3418,7 +3548,7 @@
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
       <c r="AB15" s="18" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="AC15" s="10">
         <v>8</v>
@@ -3458,7 +3588,9 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
-      <c r="AB16" s="18"/>
+      <c r="AB16" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="AC16" s="10">
         <v>8</v>
       </c>
@@ -3525,8 +3657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3612,35 +3744,35 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>75</v>
@@ -3654,9 +3786,7 @@
       <c r="N3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
@@ -3669,64 +3799,62 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="37" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="15" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="M4" s="15" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>100</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
@@ -3739,58 +3867,56 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -3803,7 +3929,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AB5" s="10" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="AC5" s="10">
         <v>8</v>
@@ -3844,7 +3970,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AB6" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AC6" s="10">
         <v>4</v>
@@ -3885,7 +4011,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AC7" s="10">
         <v>4</v>
@@ -3926,7 +4052,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AB8" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AC8" s="10">
         <v>8</v>
@@ -3967,7 +4093,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AB9" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AC9" s="10">
         <v>8</v>
@@ -4008,7 +4134,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AB10" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AC10" s="10">
         <v>8</v>
@@ -4049,10 +4175,10 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AB11" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC11" s="10">
-        <v>8</v>
+        <v>127</v>
+      </c>
+      <c r="AC11" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="AD11" s="10" t="s">
         <v>37</v>
@@ -4090,7 +4216,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AB12" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AC12" s="10">
         <v>8</v>
@@ -4131,7 +4257,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AB13" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AC13" s="10">
         <v>8</v>
@@ -4172,7 +4298,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AB14" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AC14" s="10">
         <v>8</v>
@@ -4213,7 +4339,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AB15" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AC15" s="10">
         <v>8</v>
@@ -4254,7 +4380,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AB16" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AC16" s="10">
         <v>8</v>
@@ -4295,7 +4421,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AB17" s="10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AC17" s="10">
         <v>8</v>
@@ -4340,7 +4466,7 @@
       </c>
       <c r="AC18" s="10">
         <f>SUM(AC5:AC17)</f>
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
@@ -4365,8 +4491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4452,53 +4578,53 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
@@ -4511,39 +4637,39 @@
       <c r="Y3" s="33"/>
       <c r="Z3" s="33"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="37" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>72</v>
-      </c>
       <c r="F4" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="9">
         <v>10</v>
@@ -4564,7 +4690,7 @@
         <v>17</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="O4" s="9">
         <v>19</v>
@@ -4583,60 +4709,60 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -4649,7 +4775,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AB5" s="10" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="AC5" s="10">
         <v>8</v>
@@ -4690,7 +4816,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AB6" s="10" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="AC6" s="10">
         <v>8</v>
@@ -4731,7 +4857,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="10" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="AC7" s="10">
         <v>8</v>
@@ -4771,7 +4897,9 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="10"/>
+      <c r="AB8" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="AC8" s="10">
         <v>8</v>
       </c>
@@ -4811,7 +4939,7 @@
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
       <c r="AB9" s="31" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="AC9" s="31">
         <v>8</v>
@@ -4853,7 +4981,7 @@
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="AC10" s="10">
         <v>8</v>
@@ -4895,7 +5023,7 @@
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="AC11" s="10">
         <v>8</v>
@@ -4936,7 +5064,9 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
+      <c r="AB12" s="10" t="s">
+        <v>174</v>
+      </c>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -4977,7 +5107,7 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="AC13" s="10">
         <v>8</v>
@@ -5019,7 +5149,7 @@
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="6" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="AC14" s="10">
         <v>8</v>
@@ -5061,7 +5191,7 @@
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="AC15" s="10">
         <v>8</v>
@@ -5103,7 +5233,7 @@
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="AC16" s="10">
         <v>8</v>
@@ -5145,7 +5275,7 @@
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="AC17" s="10">
         <v>8</v>
@@ -5187,7 +5317,7 @@
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="AC18" s="10">
         <v>8</v>
@@ -5229,7 +5359,7 @@
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="AC19" s="10">
         <v>8</v>
@@ -5271,7 +5401,7 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="AC20" s="10">
         <v>8</v>
@@ -5581,8 +5711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5668,29 +5798,29 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="33">
         <v>10</v>
@@ -5717,36 +5847,36 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="37" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="33" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E4" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>64</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>65</v>
       </c>
       <c r="G4" s="9">
         <v>27</v>
@@ -5755,13 +5885,13 @@
         <v>30</v>
       </c>
       <c r="I4" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>69</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>70</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="33"/>
@@ -5779,45 +5909,45 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -5835,7 +5965,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AB5" s="10" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="AC5" s="10">
         <v>8</v>
@@ -5876,7 +6006,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AB6" s="10" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AC6" s="10">
         <v>8</v>
@@ -5917,7 +6047,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="10" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="AC7" s="10">
         <v>8</v>
@@ -5958,7 +6088,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AB8" s="10" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AC8" s="10">
         <v>8</v>
@@ -5999,7 +6129,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AB9" s="10" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="AC9" s="10">
         <v>8</v>
@@ -6040,7 +6170,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AB10" s="10" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AC10" s="10">
         <v>8</v>
@@ -6120,7 +6250,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AB12" s="10" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="AC12" s="10">
         <v>8</v>
@@ -6161,7 +6291,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AB13" s="10" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AC13" s="10">
         <v>8</v>
@@ -6202,7 +6332,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AB14" s="10" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="AC14" s="10">
         <v>8</v>
@@ -6312,7 +6442,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6398,47 +6528,47 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
@@ -6453,60 +6583,60 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="37" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="15" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
@@ -6521,54 +6651,54 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -6583,7 +6713,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AB5" s="10" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="AC5" s="10">
         <v>8</v>
@@ -6624,7 +6754,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AB6" s="10" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="AC6" s="10">
         <v>8</v>
@@ -6665,7 +6795,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="10" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="AC7" s="10">
         <v>8</v>
@@ -6706,7 +6836,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AB8" s="10" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AC8" s="10">
         <v>8</v>
@@ -6747,7 +6877,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AB9" s="10" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="AC9" s="10">
         <v>8</v>
@@ -6788,7 +6918,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AB10" s="10" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="AC10" s="10">
         <v>8</v>
@@ -6829,7 +6959,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AB11" s="10" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="AC11" s="10">
         <v>8</v>
@@ -6870,7 +7000,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AB12" s="10" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="AC12" s="10">
         <v>8</v>
@@ -6911,7 +7041,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AB13" s="10" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="AC13" s="10">
         <v>8</v>
@@ -6952,7 +7082,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AB14" s="10" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="AC14" s="10">
         <v>8</v>
@@ -6993,7 +7123,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AB15" s="10" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="AC15" s="10">
         <v>8</v>
@@ -7034,7 +7164,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AB16" s="10" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="AC16" s="10">
         <v>8</v>
@@ -7105,7 +7235,7 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7191,246 +7321,248 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="X3" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="37" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>64</v>
-      </c>
       <c r="W4" s="15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AB5" s="18" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="AC5" s="10">
         <v>8</v>
@@ -7512,7 +7644,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="18" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AC7" s="10">
         <v>8</v>
@@ -7553,7 +7685,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AB8" s="18" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AC8" s="10">
         <v>8</v>
@@ -7594,7 +7726,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AB9" s="18" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="AC9" s="10">
         <v>8</v>
@@ -7635,7 +7767,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AB10" s="18" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="AC10" s="10">
         <v>8</v>
@@ -7676,7 +7808,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AB11" s="18" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="AC11" s="10">
         <v>8</v>
@@ -7717,7 +7849,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AB12" s="18" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="AC12" s="10">
         <v>8</v>
@@ -7758,7 +7890,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AB13" s="18" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="AC13" s="10">
         <v>8</v>
@@ -7799,7 +7931,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AB14" s="18" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="AC14" s="10">
         <v>8</v>
@@ -7840,7 +7972,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AB15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC15" s="10">
         <v>8</v>
@@ -7881,7 +8013,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AB16" s="18" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="AC16" s="10">
         <v>8</v>
@@ -7922,7 +8054,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AB17" s="18" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="AC17" s="10">
         <v>8</v>
@@ -7963,7 +8095,7 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AB18" s="18" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="AC18" s="10">
         <v>8</v>
@@ -8004,7 +8136,7 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AB19" s="18" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="AC19" s="10">
         <v>8</v>
@@ -8045,7 +8177,7 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
       <c r="AB20" s="18" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="AC20" s="10">
         <v>8</v>
@@ -8086,7 +8218,7 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
       <c r="AB21" s="18" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="AC21" s="10">
         <v>8</v>
@@ -8127,7 +8259,7 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
       <c r="AB22" s="18" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="AC22" s="10">
         <v>8</v>
@@ -8168,7 +8300,7 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
       <c r="AB23" s="18" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="AC23" s="10">
         <v>8</v>
@@ -8209,7 +8341,7 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AB24" s="18" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="AC24" s="10">
         <v>8</v>
@@ -8250,7 +8382,7 @@
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
       <c r="AB25" s="18" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="AC25" s="10">
         <v>8</v>
@@ -8290,9 +8422,7 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
-      <c r="AB26" s="18" t="s">
-        <v>146</v>
-      </c>
+      <c r="AB26" s="18"/>
       <c r="AC26" s="10">
         <v>8</v>
       </c>
@@ -8331,9 +8461,7 @@
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
-      <c r="AB27" s="18" t="s">
-        <v>147</v>
-      </c>
+      <c r="AB27" s="18"/>
       <c r="AC27" s="10">
         <v>8</v>
       </c>
@@ -8402,8 +8530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8489,45 +8617,31 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
@@ -8542,58 +8656,44 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="37" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="15" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>98</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
@@ -8608,51 +8708,51 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -8668,7 +8768,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AB5" s="10" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="AC5" s="10">
         <v>8</v>
@@ -8707,7 +8807,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AB6" s="10" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AC6" s="10">
         <v>8</v>
@@ -8746,7 +8846,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="10" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="AC7" s="10">
         <v>8</v>
@@ -8785,7 +8885,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AB8" s="10" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="AC8" s="10">
         <v>8</v>
@@ -8823,9 +8923,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="10" t="s">
-        <v>153</v>
-      </c>
+      <c r="AB9" s="10"/>
       <c r="AC9" s="10">
         <v>8</v>
       </c>
@@ -8862,9 +8960,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="10" t="s">
-        <v>154</v>
-      </c>
+      <c r="AB10" s="10"/>
       <c r="AC10" s="10">
         <v>8</v>
       </c>
@@ -8901,9 +8997,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="10" t="s">
-        <v>155</v>
-      </c>
+      <c r="AB11" s="10"/>
       <c r="AC11" s="10">
         <v>8</v>
       </c>
@@ -8940,9 +9034,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="10" t="s">
-        <v>156</v>
-      </c>
+      <c r="AB12" s="10"/>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -8979,9 +9071,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="10" t="s">
-        <v>157</v>
-      </c>
+      <c r="AB13" s="10"/>
       <c r="AC13" s="10">
         <v>8</v>
       </c>
@@ -9018,9 +9108,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="10" t="s">
-        <v>158</v>
-      </c>
+      <c r="AB14" s="10"/>
       <c r="AC14" s="10">
         <v>8</v>
       </c>
@@ -9057,9 +9145,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="AB15" s="10"/>
       <c r="AC15" s="10">
         <v>4</v>
       </c>

--- a/Dienynas JAVA 0826.xlsx
+++ b/Dienynas JAVA 0826.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="12960" windowHeight="6300" tabRatio="836" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="12960" windowHeight="6300" tabRatio="836" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1. Tarnyb. stotys" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="207">
   <si>
     <t>mėnuo / diena</t>
   </si>
@@ -652,7 +652,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,21 +730,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="186"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,6 +746,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -911,9 +909,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -966,20 +961,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -999,6 +990,54 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1305,7 +1344,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1352,7 @@
     <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
     <col min="3" max="27" width="2.42578125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" style="19" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="18" customWidth="1"/>
     <col min="29" max="29" width="4.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="26.7109375" style="6" customWidth="1"/>
     <col min="31" max="31" width="15.5703125" style="6" customWidth="1"/>
@@ -1350,7 +1389,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="16"/>
+      <c r="AB1" s="15"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
@@ -1385,149 +1424,149 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="17"/>
+      <c r="AB2" s="16"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="48" t="s">
+      <c r="AB3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="44" t="s">
+      <c r="AC3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="44" t="s">
+      <c r="AD3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AE3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -1575,7 +1614,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="18" t="s">
+      <c r="AB5" s="59" t="s">
         <v>109</v>
       </c>
       <c r="AC5" s="10">
@@ -1590,9 +1629,9 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1616,7 +1655,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="18" t="s">
+      <c r="AB6" s="59" t="s">
         <v>110</v>
       </c>
       <c r="AC6" s="10">
@@ -1631,9 +1670,9 @@
       <c r="AF6" s="10"/>
     </row>
     <row r="7" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1657,7 +1696,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="18" t="s">
+      <c r="AB7" s="59" t="s">
         <v>110</v>
       </c>
       <c r="AC7" s="10">
@@ -1672,9 +1711,9 @@
       <c r="AF7" s="10"/>
     </row>
     <row r="8" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -1698,7 +1737,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="18" t="s">
+      <c r="AB8" s="59" t="s">
         <v>111</v>
       </c>
       <c r="AC8" s="10">
@@ -1713,9 +1752,9 @@
       <c r="AF8" s="10"/>
     </row>
     <row r="9" spans="1:32" ht="39" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="25"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1739,7 +1778,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="18" t="s">
+      <c r="AB9" s="59" t="s">
         <v>112</v>
       </c>
       <c r="AC9" s="10">
@@ -1780,7 +1819,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="18" t="s">
+      <c r="AB10" s="59" t="s">
         <v>113</v>
       </c>
       <c r="AC10" s="10">
@@ -1821,7 +1860,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="18" t="s">
+      <c r="AB11" s="59" t="s">
         <v>114</v>
       </c>
       <c r="AC11" s="10">
@@ -1862,7 +1901,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="18" t="s">
+      <c r="AB12" s="59" t="s">
         <v>115</v>
       </c>
       <c r="AC12" s="10">
@@ -1903,7 +1942,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="18" t="s">
+      <c r="AB13" s="59" t="s">
         <v>117</v>
       </c>
       <c r="AC13" s="10">
@@ -1944,7 +1983,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="18" t="s">
+      <c r="AB14" s="59" t="s">
         <v>118</v>
       </c>
       <c r="AC14" s="10">
@@ -1985,7 +2024,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="18" t="s">
+      <c r="AB15" s="59" t="s">
         <v>120</v>
       </c>
       <c r="AC15" s="10">
@@ -2026,7 +2065,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AB16" s="18" t="s">
+      <c r="AB16" s="59" t="s">
         <v>147</v>
       </c>
       <c r="AC16" s="10">
@@ -2067,7 +2106,7 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AB17" s="18" t="s">
+      <c r="AB17" s="59" t="s">
         <v>121</v>
       </c>
       <c r="AC17" s="10">
@@ -2108,7 +2147,7 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-      <c r="AB18" s="18" t="s">
+      <c r="AB18" s="17" t="s">
         <v>8</v>
       </c>
       <c r="AC18" s="10">
@@ -2138,26 +2177,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="39" customWidth="1"/>
     <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="6" style="43" customWidth="1"/>
+    <col min="5" max="5" width="6" style="39" customWidth="1"/>
     <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="6" style="43" customWidth="1"/>
+    <col min="7" max="7" width="6" style="39" customWidth="1"/>
     <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="39" customWidth="1"/>
     <col min="10" max="10" width="6.140625" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="43" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="39" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" style="43" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="39" customWidth="1"/>
     <col min="14" max="14" width="5.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="40" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" customWidth="1"/>
     <col min="17" max="17" width="6.28515625" customWidth="1"/>
   </cols>
@@ -2166,706 +2205,737 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="53">
         <v>2</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="53">
         <v>2</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="53">
         <v>5</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="53">
         <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="43">
+      <c r="K2" s="53">
         <v>7</v>
       </c>
       <c r="L2" t="s">
         <v>181</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="53">
         <v>8</v>
       </c>
       <c r="N2" t="s">
         <v>203</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="R2" s="35"/>
+      <c r="O2" s="62">
+        <v>8</v>
+      </c>
+      <c r="R2" s="33"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="53">
         <v>2</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="43">
-        <v>2</v>
-      </c>
-      <c r="F3" s="38" t="s">
+      <c r="E3" s="53">
+        <v>4</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="53">
         <v>5</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="53">
         <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="53">
         <v>7</v>
       </c>
       <c r="L3" t="s">
         <v>182</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="53">
         <v>8</v>
       </c>
       <c r="N3" t="s">
         <v>204</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="R3" s="35"/>
+      <c r="O3" s="62">
+        <v>8</v>
+      </c>
+      <c r="R3" s="33"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="53">
         <v>2</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="53">
         <v>4</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="53">
         <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="53">
         <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>164</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="53">
         <v>7</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="53">
         <v>7</v>
       </c>
       <c r="N4" t="s">
         <v>205</v>
       </c>
-      <c r="O4" s="36"/>
-      <c r="R4" s="35"/>
+      <c r="O4" s="62">
+        <v>8</v>
+      </c>
+      <c r="R4" s="33"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="53">
         <v>2</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="53">
         <v>4</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="53">
         <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="53">
         <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="53">
         <v>7</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="53">
         <v>7</v>
       </c>
-      <c r="O5" s="36"/>
-      <c r="R5" s="35"/>
+      <c r="R5" s="33"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="53">
         <v>2</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="53">
         <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="53">
         <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="53">
         <v>6</v>
       </c>
       <c r="J6" t="s">
         <v>166</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="53">
         <v>7</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="53">
         <v>7</v>
       </c>
-      <c r="O6" s="36"/>
-      <c r="R6" s="35"/>
+      <c r="R6" s="33"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="53">
         <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="53">
         <v>1</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="53">
         <v>6</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="53">
         <v>7</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="53">
         <v>7</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="R7" s="35"/>
+      <c r="R7" s="33"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="53">
         <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="53">
         <v>1</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="53">
         <v>6</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="53">
         <v>7</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="53">
         <v>7</v>
       </c>
-      <c r="O8" s="36"/>
-      <c r="R8" s="35"/>
+      <c r="R8" s="33"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="53">
         <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="53">
         <v>1</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="53">
         <v>6</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="53">
         <v>7</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="53">
         <v>7</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="R9" s="35"/>
+      <c r="R9" s="33"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="53">
         <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="53">
         <v>1</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="53">
         <v>6</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="53">
         <v>7</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="O10" s="36"/>
-      <c r="R10" s="35"/>
+      <c r="M10" s="53">
+        <v>7</v>
+      </c>
+      <c r="R10" s="33"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="53">
         <v>4</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="53">
         <v>1</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="53">
         <v>6</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="53">
         <v>7</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="O11" s="36"/>
-      <c r="R11" s="35"/>
+      <c r="M11" s="53">
+        <v>7</v>
+      </c>
+      <c r="R11" s="33"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="53">
         <v>4</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="53">
         <v>1</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="53">
         <v>6</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="53">
         <v>7</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="O12" s="36"/>
-      <c r="R12" s="35"/>
+      <c r="M12" s="53">
+        <v>4</v>
+      </c>
+      <c r="R12" s="33"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="53">
         <v>4</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="53">
         <v>1</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="53">
         <v>6</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="53">
         <v>4</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="O13" s="36"/>
-      <c r="R13" s="35"/>
+      <c r="M13" s="53">
+        <v>4</v>
+      </c>
+      <c r="R13" s="33"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="53">
         <v>4</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="53">
         <v>1</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="53">
         <v>6</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="53">
         <v>4</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="O14" s="36"/>
+      <c r="M14" s="53">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="53">
         <v>4</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="53">
         <v>1</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="53">
         <v>6</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="53">
         <v>2</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O15" s="36"/>
+      <c r="M15" s="53">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="53">
         <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="53">
         <v>1</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="53">
         <v>6</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="53">
         <v>2</v>
       </c>
-      <c r="L16" s="41" t="s">
+      <c r="L16" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="O16" s="35"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="M16" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="53">
         <v>5</v>
       </c>
       <c r="F17" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="53">
         <v>3</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="53">
         <v>6</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="53">
         <v>2</v>
       </c>
-      <c r="L17" s="41" t="s">
+      <c r="L17" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="O17" s="35"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="M17" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="53">
         <v>5</v>
       </c>
       <c r="F18" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="53">
         <v>3</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="53">
         <v>7</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="53">
         <v>2</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="L18" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="O18" s="35"/>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="53">
         <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="53">
         <v>3</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="53">
         <v>7</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="43">
-        <v>8</v>
-      </c>
-      <c r="L19" s="40" t="s">
+      <c r="K19" s="53">
+        <v>8</v>
+      </c>
+      <c r="L19" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="O19" s="35"/>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="53">
         <v>5</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="53">
         <v>3</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="53">
         <v>7</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="K20" s="43">
-        <v>8</v>
-      </c>
-      <c r="L20" s="40" t="s">
+      <c r="K20" s="53">
+        <v>8</v>
+      </c>
+      <c r="L20" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="O20" s="35"/>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="53">
         <v>5</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="53">
         <v>3</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="53">
         <v>7</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="L21" s="42" t="s">
+      <c r="J21" s="35"/>
+      <c r="L21" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="O21" s="35"/>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="38" t="s">
+      <c r="M21" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="53">
         <v>5</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="53">
         <v>3</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="L22" s="42" t="s">
+      <c r="J22" s="35"/>
+      <c r="L22" s="38" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="F23" s="38" t="s">
+      <c r="M22" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F23" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="53">
         <v>3</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="38" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="F24" s="38" t="s">
+      <c r="M23" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="53">
         <v>3</v>
       </c>
     </row>
@@ -2879,17 +2949,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
-    <col min="3" max="26" width="2.42578125" style="19" customWidth="1"/>
+    <col min="3" max="26" width="2.42578125" style="18" customWidth="1"/>
     <col min="27" max="27" width="2.42578125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" style="19" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="18" customWidth="1"/>
     <col min="29" max="29" width="4.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="26.7109375" style="6" customWidth="1"/>
     <col min="31" max="31" width="15.5703125" style="6" customWidth="1"/>
@@ -2901,245 +2971,251 @@
         <v>13</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="16"/>
+      <c r="AB1" s="15"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
     </row>
     <row r="2" spans="1:32" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="17"/>
+      <c r="AB2" s="16"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="M3" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="48" t="s">
+      <c r="AB3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="44" t="s">
+      <c r="AC3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="44" t="s">
+      <c r="AD3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AE3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="M4" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AB5" s="18" t="s">
+      <c r="C5" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AB5" s="47" t="s">
         <v>89</v>
       </c>
       <c r="AC5" s="10">
@@ -3154,33 +3230,33 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AB6" s="18" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AB6" s="47" t="s">
         <v>89</v>
       </c>
       <c r="AC6" s="10">
@@ -3195,33 +3271,33 @@
       <c r="AF6" s="10"/>
     </row>
     <row r="7" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AB7" s="18" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AB7" s="47" t="s">
         <v>90</v>
       </c>
       <c r="AC7" s="10">
@@ -3236,33 +3312,33 @@
       <c r="AF7" s="10"/>
     </row>
     <row r="8" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AB8" s="18" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AB8" s="59" t="s">
         <v>175</v>
       </c>
       <c r="AC8" s="10">
@@ -3278,32 +3354,32 @@
     </row>
     <row r="9" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AB9" s="18" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AB9" s="47" t="s">
         <v>91</v>
       </c>
       <c r="AC9" s="10">
@@ -3320,31 +3396,31 @@
     <row r="10" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AB10" s="18" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AB10" s="47" t="s">
         <v>92</v>
       </c>
       <c r="AC10" s="10">
@@ -3361,31 +3437,31 @@
     <row r="11" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AB11" s="18" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AB11" s="59" t="s">
         <v>176</v>
       </c>
       <c r="AC11" s="10">
@@ -3402,31 +3478,33 @@
     <row r="12" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AB12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AB12" s="59" t="s">
+        <v>197</v>
+      </c>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -3441,31 +3519,31 @@
     <row r="13" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AB13" s="18" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AB13" s="47" t="s">
         <v>93</v>
       </c>
       <c r="AC13" s="10">
@@ -3482,31 +3560,31 @@
     <row r="14" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AB14" s="18" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AB14" s="59" t="s">
         <v>177</v>
       </c>
       <c r="AC14" s="10">
@@ -3523,31 +3601,31 @@
     <row r="15" spans="1:32" ht="39" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AB15" s="18" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AB15" s="47" t="s">
         <v>97</v>
       </c>
       <c r="AC15" s="10">
@@ -3564,31 +3642,31 @@
     <row r="16" spans="1:32" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AB16" s="18" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AB16" s="59" t="s">
         <v>178</v>
       </c>
       <c r="AC16" s="10">
@@ -3605,31 +3683,31 @@
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AB17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AB17" s="17"/>
       <c r="AC17" s="10">
         <f>SUM(AC5:AC16)</f>
         <v>88</v>
@@ -3657,8 +3735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3744,140 +3822,140 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="44" t="s">
+      <c r="AB3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="44" t="s">
+      <c r="AC3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="44" t="s">
+      <c r="AD3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AE3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
     </row>
     <row r="5" spans="1:32" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>149</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -3928,7 +4006,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="54" t="s">
         <v>122</v>
       </c>
       <c r="AC5" s="10">
@@ -3944,7 +4022,7 @@
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -3969,7 +4047,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="10" t="s">
+      <c r="AB6" s="54" t="s">
         <v>123</v>
       </c>
       <c r="AC6" s="10">
@@ -3986,7 +4064,7 @@
     <row r="7" spans="1:32" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -4010,7 +4088,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="10" t="s">
+      <c r="AB7" s="54" t="s">
         <v>123</v>
       </c>
       <c r="AC7" s="10">
@@ -4027,7 +4105,7 @@
     <row r="8" spans="1:32" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -4051,7 +4129,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="10" t="s">
+      <c r="AB8" s="54" t="s">
         <v>124</v>
       </c>
       <c r="AC8" s="10">
@@ -4068,7 +4146,7 @@
     <row r="9" spans="1:32" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="25"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -4092,7 +4170,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="10" t="s">
+      <c r="AB9" s="54" t="s">
         <v>125</v>
       </c>
       <c r="AC9" s="10">
@@ -4133,7 +4211,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="54" t="s">
         <v>126</v>
       </c>
       <c r="AC10" s="10">
@@ -4174,7 +4252,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="10" t="s">
+      <c r="AB11" s="54" t="s">
         <v>127</v>
       </c>
       <c r="AC11" s="10" t="s">
@@ -4215,7 +4293,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="10" t="s">
+      <c r="AB12" s="54" t="s">
         <v>128</v>
       </c>
       <c r="AC12" s="10">
@@ -4256,7 +4334,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="10" t="s">
+      <c r="AB13" s="54" t="s">
         <v>129</v>
       </c>
       <c r="AC13" s="10">
@@ -4297,7 +4375,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="10" t="s">
+      <c r="AB14" s="54" t="s">
         <v>130</v>
       </c>
       <c r="AC14" s="10">
@@ -4338,7 +4416,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="10" t="s">
+      <c r="AB15" s="54" t="s">
         <v>131</v>
       </c>
       <c r="AC15" s="10">
@@ -4379,7 +4457,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AB16" s="10" t="s">
+      <c r="AB16" s="54" t="s">
         <v>132</v>
       </c>
       <c r="AC16" s="10">
@@ -4420,7 +4498,7 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AB17" s="10" t="s">
+      <c r="AB17" s="54" t="s">
         <v>133</v>
       </c>
       <c r="AC17" s="10">
@@ -4491,8 +4569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3:X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4578,148 +4656,180 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
+      <c r="Q3" s="55">
+        <v>12</v>
+      </c>
+      <c r="R3" s="55">
+        <v>12</v>
+      </c>
+      <c r="S3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="44" t="s">
+      <c r="AB3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="44" t="s">
+      <c r="AC3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="44" t="s">
+      <c r="AD3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AE3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="33" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="57">
         <v>10</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="57">
         <v>11</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="57">
         <v>12</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="57">
         <v>13</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="57">
         <v>16</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="57">
         <v>17</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="57">
         <v>19</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="57">
         <v>20</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
+      <c r="Q4" s="57">
+        <v>17</v>
+      </c>
+      <c r="R4" s="57">
+        <v>18</v>
+      </c>
+      <c r="S4" s="57">
+        <v>16</v>
+      </c>
+      <c r="T4" s="57">
+        <v>17</v>
+      </c>
+      <c r="U4" s="57">
+        <v>20</v>
+      </c>
+      <c r="V4" s="55">
+        <v>21</v>
+      </c>
+      <c r="W4" s="55">
+        <v>22</v>
+      </c>
+      <c r="X4" s="55">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>149</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -4764,17 +4874,33 @@
       <c r="P5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
+      <c r="Q5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="54" t="s">
         <v>98</v>
       </c>
       <c r="AC5" s="10">
@@ -4790,7 +4916,7 @@
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -4815,7 +4941,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="10" t="s">
+      <c r="AB6" s="54" t="s">
         <v>94</v>
       </c>
       <c r="AC6" s="10">
@@ -4856,7 +4982,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="10" t="s">
+      <c r="AB7" s="54" t="s">
         <v>143</v>
       </c>
       <c r="AC7" s="10">
@@ -4897,7 +5023,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="10" t="s">
+      <c r="AB8" s="54" t="s">
         <v>173</v>
       </c>
       <c r="AC8" s="10">
@@ -4912,45 +5038,45 @@
       <c r="AF8" s="10"/>
     </row>
     <row r="9" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AB9" s="31" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AB9" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="AC9" s="31">
-        <v>8</v>
-      </c>
-      <c r="AD9" s="31" t="s">
+      <c r="AC9" s="30">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="30" t="s">
         <v>41</v>
       </c>
       <c r="AE9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AF9" s="31"/>
+      <c r="AF9" s="30"/>
     </row>
     <row r="10" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -4980,7 +5106,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="54" t="s">
         <v>144</v>
       </c>
       <c r="AC10" s="10">
@@ -5022,7 +5148,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
-      <c r="AB11" s="10" t="s">
+      <c r="AB11" s="54" t="s">
         <v>96</v>
       </c>
       <c r="AC11" s="10">
@@ -5064,7 +5190,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
-      <c r="AB12" s="10" t="s">
+      <c r="AB12" s="54" t="s">
         <v>174</v>
       </c>
       <c r="AC12" s="10">
@@ -5106,7 +5232,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
-      <c r="AB13" s="10" t="s">
+      <c r="AB13" s="54" t="s">
         <v>99</v>
       </c>
       <c r="AC13" s="10">
@@ -5148,7 +5274,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
-      <c r="AB14" s="6" t="s">
+      <c r="AB14" s="58" t="s">
         <v>100</v>
       </c>
       <c r="AC14" s="10">
@@ -5162,9 +5288,9 @@
       </c>
       <c r="AF14" s="10"/>
     </row>
-    <row r="15" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -5190,7 +5316,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
-      <c r="AB15" s="10" t="s">
+      <c r="AB15" s="54" t="s">
         <v>138</v>
       </c>
       <c r="AC15" s="10">
@@ -5204,9 +5330,9 @@
       </c>
       <c r="AF15" s="10"/>
     </row>
-    <row r="16" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -5232,7 +5358,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
-      <c r="AB16" s="10" t="s">
+      <c r="AB16" s="54" t="s">
         <v>101</v>
       </c>
       <c r="AC16" s="10">
@@ -5246,9 +5372,9 @@
       </c>
       <c r="AF16" s="10"/>
     </row>
-    <row r="17" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -5274,7 +5400,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
-      <c r="AB17" s="10" t="s">
+      <c r="AB17" s="54" t="s">
         <v>139</v>
       </c>
       <c r="AC17" s="10">
@@ -5288,7 +5414,7 @@
       </c>
       <c r="AF17" s="10"/>
     </row>
-    <row r="18" spans="1:32" s="32" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" s="31" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -5316,7 +5442,7 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
-      <c r="AB18" s="10" t="s">
+      <c r="AB18" s="54" t="s">
         <v>140</v>
       </c>
       <c r="AC18" s="10">
@@ -5330,7 +5456,7 @@
       </c>
       <c r="AF18" s="10"/>
     </row>
-    <row r="19" spans="1:32" s="32" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" s="31" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -5358,7 +5484,7 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
-      <c r="AB19" s="10" t="s">
+      <c r="AB19" s="54" t="s">
         <v>141</v>
       </c>
       <c r="AC19" s="10">
@@ -5372,7 +5498,7 @@
       </c>
       <c r="AF19" s="10"/>
     </row>
-    <row r="20" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -5400,7 +5526,7 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
-      <c r="AB20" s="10" t="s">
+      <c r="AB20" s="54" t="s">
         <v>142</v>
       </c>
       <c r="AC20" s="10">
@@ -5414,7 +5540,7 @@
       </c>
       <c r="AF20" s="10"/>
     </row>
-    <row r="21" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5442,7 +5568,9 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
+      <c r="AB21" s="54" t="s">
+        <v>191</v>
+      </c>
       <c r="AC21" s="10">
         <v>8</v>
       </c>
@@ -5454,7 +5582,7 @@
       </c>
       <c r="AF21" s="10"/>
     </row>
-    <row r="22" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5482,7 +5610,9 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
+      <c r="AB22" s="54" t="s">
+        <v>192</v>
+      </c>
       <c r="AC22" s="10">
         <v>8</v>
       </c>
@@ -5494,7 +5624,7 @@
       </c>
       <c r="AF22" s="10"/>
     </row>
-    <row r="23" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5522,7 +5652,9 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
+      <c r="AB23" s="54" t="s">
+        <v>193</v>
+      </c>
       <c r="AC23" s="10">
         <v>8</v>
       </c>
@@ -5534,7 +5666,7 @@
       </c>
       <c r="AF23" s="10"/>
     </row>
-    <row r="24" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -5562,7 +5694,9 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
+      <c r="AB24" s="54" t="s">
+        <v>194</v>
+      </c>
       <c r="AC24" s="10">
         <v>8</v>
       </c>
@@ -5574,7 +5708,7 @@
       </c>
       <c r="AF24" s="10"/>
     </row>
-    <row r="25" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -5602,7 +5736,9 @@
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
+      <c r="AB25" s="54" t="s">
+        <v>195</v>
+      </c>
       <c r="AC25" s="10">
         <v>8</v>
       </c>
@@ -5614,7 +5750,7 @@
       </c>
       <c r="AF25" s="10"/>
     </row>
-    <row r="26" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -5642,7 +5778,9 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
+      <c r="AB26" s="54" t="s">
+        <v>196</v>
+      </c>
       <c r="AC26" s="10">
         <v>8</v>
       </c>
@@ -5655,42 +5793,42 @@
       <c r="AF26" s="10"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AB27" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC27" s="27">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AB27" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC27" s="26">
         <f>SUM(AC5:AC26)</f>
         <v>176</v>
       </c>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5711,8 +5849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5798,41 +5936,45 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="55">
         <v>10</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="55">
         <v>10</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="55">
         <v>10</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="L3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>67</v>
+      </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -5847,54 +5989,58 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="44" t="s">
+      <c r="AB3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="44" t="s">
+      <c r="AC3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="44" t="s">
+      <c r="AD3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AE3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="33" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="57">
         <v>27</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="55">
         <v>30</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="33"/>
+      <c r="L4" s="57">
+        <v>27</v>
+      </c>
+      <c r="M4" s="55">
+        <v>28</v>
+      </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -5909,48 +6055,52 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
     </row>
     <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="C5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -5964,7 +6114,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="54" t="s">
         <v>102</v>
       </c>
       <c r="AC5" s="10">
@@ -5980,7 +6130,7 @@
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -6005,7 +6155,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="10" t="s">
+      <c r="AB6" s="54" t="s">
         <v>103</v>
       </c>
       <c r="AC6" s="10">
@@ -6046,7 +6196,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="10" t="s">
+      <c r="AB7" s="54" t="s">
         <v>145</v>
       </c>
       <c r="AC7" s="10">
@@ -6087,7 +6237,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="10" t="s">
+      <c r="AB8" s="54" t="s">
         <v>104</v>
       </c>
       <c r="AC8" s="10">
@@ -6128,7 +6278,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="10" t="s">
+      <c r="AB9" s="54" t="s">
         <v>146</v>
       </c>
       <c r="AC9" s="10">
@@ -6169,7 +6319,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="54" t="s">
         <v>105</v>
       </c>
       <c r="AC10" s="10">
@@ -6210,7 +6360,9 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="10"/>
+      <c r="AB11" s="54" t="s">
+        <v>198</v>
+      </c>
       <c r="AC11" s="10">
         <v>8</v>
       </c>
@@ -6249,7 +6401,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="10" t="s">
+      <c r="AB12" s="54" t="s">
         <v>106</v>
       </c>
       <c r="AC12" s="10">
@@ -6290,7 +6442,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="10" t="s">
+      <c r="AB13" s="54" t="s">
         <v>107</v>
       </c>
       <c r="AC13" s="10">
@@ -6331,7 +6483,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="10" t="s">
+      <c r="AB14" s="54" t="s">
         <v>108</v>
       </c>
       <c r="AC14" s="10">
@@ -6372,7 +6524,9 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="10"/>
+      <c r="AB15" s="54" t="s">
+        <v>199</v>
+      </c>
       <c r="AC15" s="10">
         <v>8</v>
       </c>
@@ -6441,8 +6595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6528,140 +6682,140 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="44" t="s">
+      <c r="AB3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="44" t="s">
+      <c r="AC3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="44" t="s">
+      <c r="AD3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AE3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>149</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -6712,7 +6866,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="54" t="s">
         <v>134</v>
       </c>
       <c r="AC5" s="10">
@@ -6728,7 +6882,7 @@
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -6753,7 +6907,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="10" t="s">
+      <c r="AB6" s="54" t="s">
         <v>135</v>
       </c>
       <c r="AC6" s="10">
@@ -6794,7 +6948,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="10" t="s">
+      <c r="AB7" s="54" t="s">
         <v>136</v>
       </c>
       <c r="AC7" s="10">
@@ -6835,7 +6989,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="10" t="s">
+      <c r="AB8" s="54" t="s">
         <v>137</v>
       </c>
       <c r="AC8" s="10">
@@ -6876,7 +7030,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="10" t="s">
+      <c r="AB9" s="54" t="s">
         <v>150</v>
       </c>
       <c r="AC9" s="10">
@@ -6917,7 +7071,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="54" t="s">
         <v>151</v>
       </c>
       <c r="AC10" s="10">
@@ -6958,7 +7112,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="10" t="s">
+      <c r="AB11" s="54" t="s">
         <v>152</v>
       </c>
       <c r="AC11" s="10">
@@ -6999,7 +7153,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="10" t="s">
+      <c r="AB12" s="54" t="s">
         <v>153</v>
       </c>
       <c r="AC12" s="10">
@@ -7040,7 +7194,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="10" t="s">
+      <c r="AB13" s="54" t="s">
         <v>154</v>
       </c>
       <c r="AC13" s="10">
@@ -7081,7 +7235,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="10" t="s">
+      <c r="AB14" s="54" t="s">
         <v>155</v>
       </c>
       <c r="AC14" s="10">
@@ -7122,7 +7276,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="10" t="s">
+      <c r="AB15" s="54" t="s">
         <v>156</v>
       </c>
       <c r="AC15" s="10">
@@ -7163,7 +7317,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AB16" s="10" t="s">
+      <c r="AB16" s="54" t="s">
         <v>157</v>
       </c>
       <c r="AC16" s="10">
@@ -7235,7 +7389,7 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7243,7 +7397,7 @@
     <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
     <col min="3" max="27" width="2.42578125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" style="19" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="18" customWidth="1"/>
     <col min="29" max="29" width="4.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="26.7109375" style="6" customWidth="1"/>
     <col min="31" max="31" width="15.5703125" style="6" customWidth="1"/>
@@ -7280,7 +7434,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="16"/>
+      <c r="AB1" s="15"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
@@ -7315,184 +7469,190 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="17"/>
+      <c r="AB2" s="16"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="Y3" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="48" t="s">
+      <c r="AB3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="44" t="s">
+      <c r="AC3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="44" t="s">
+      <c r="AD3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AE3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="X4" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>149</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -7558,10 +7718,14 @@
       <c r="W5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="X5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="18" t="s">
+      <c r="AB5" s="59" t="s">
         <v>158</v>
       </c>
       <c r="AC5" s="10">
@@ -7577,7 +7741,7 @@
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -7602,7 +7766,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="18" t="s">
+      <c r="AB6" s="59" t="s">
         <v>159</v>
       </c>
       <c r="AC6" s="10">
@@ -7618,7 +7782,7 @@
     </row>
     <row r="7" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="29"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -7643,7 +7807,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="18" t="s">
+      <c r="AB7" s="59" t="s">
         <v>160</v>
       </c>
       <c r="AC7" s="10">
@@ -7659,7 +7823,7 @@
     </row>
     <row r="8" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -7684,7 +7848,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="18" t="s">
+      <c r="AB8" s="59" t="s">
         <v>161</v>
       </c>
       <c r="AC8" s="10">
@@ -7700,7 +7864,7 @@
     </row>
     <row r="9" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -7725,7 +7889,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="18" t="s">
+      <c r="AB9" s="59" t="s">
         <v>162</v>
       </c>
       <c r="AC9" s="10">
@@ -7741,7 +7905,7 @@
     </row>
     <row r="10" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -7766,7 +7930,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="18" t="s">
+      <c r="AB10" s="59" t="s">
         <v>163</v>
       </c>
       <c r="AC10" s="10">
@@ -7782,7 +7946,7 @@
     </row>
     <row r="11" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -7807,7 +7971,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="18" t="s">
+      <c r="AB11" s="59" t="s">
         <v>164</v>
       </c>
       <c r="AC11" s="10">
@@ -7823,7 +7987,7 @@
     </row>
     <row r="12" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -7848,7 +8012,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="18" t="s">
+      <c r="AB12" s="59" t="s">
         <v>165</v>
       </c>
       <c r="AC12" s="10">
@@ -7864,7 +8028,7 @@
     </row>
     <row r="13" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -7889,7 +8053,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="18" t="s">
+      <c r="AB13" s="59" t="s">
         <v>166</v>
       </c>
       <c r="AC13" s="10">
@@ -7905,7 +8069,7 @@
     </row>
     <row r="14" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -7930,7 +8094,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="18" t="s">
+      <c r="AB14" s="59" t="s">
         <v>167</v>
       </c>
       <c r="AC14" s="10">
@@ -7946,7 +8110,7 @@
     </row>
     <row r="15" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -7971,7 +8135,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="18" t="s">
+      <c r="AB15" s="59" t="s">
         <v>168</v>
       </c>
       <c r="AC15" s="10">
@@ -7987,7 +8151,7 @@
     </row>
     <row r="16" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -8012,7 +8176,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AB16" s="18" t="s">
+      <c r="AB16" s="59" t="s">
         <v>169</v>
       </c>
       <c r="AC16" s="10">
@@ -8028,7 +8192,7 @@
     </row>
     <row r="17" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -8053,7 +8217,7 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AB17" s="18" t="s">
+      <c r="AB17" s="59" t="s">
         <v>170</v>
       </c>
       <c r="AC17" s="10">
@@ -8069,7 +8233,7 @@
     </row>
     <row r="18" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -8094,7 +8258,7 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-      <c r="AB18" s="18" t="s">
+      <c r="AB18" s="59" t="s">
         <v>171</v>
       </c>
       <c r="AC18" s="10">
@@ -8110,7 +8274,7 @@
     </row>
     <row r="19" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -8135,7 +8299,7 @@
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
-      <c r="AB19" s="18" t="s">
+      <c r="AB19" s="59" t="s">
         <v>172</v>
       </c>
       <c r="AC19" s="10">
@@ -8151,7 +8315,7 @@
     </row>
     <row r="20" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="29"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -8176,7 +8340,7 @@
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
-      <c r="AB20" s="18" t="s">
+      <c r="AB20" s="59" t="s">
         <v>183</v>
       </c>
       <c r="AC20" s="10">
@@ -8192,7 +8356,7 @@
     </row>
     <row r="21" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -8217,7 +8381,7 @@
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
-      <c r="AB21" s="18" t="s">
+      <c r="AB21" s="59" t="s">
         <v>184</v>
       </c>
       <c r="AC21" s="10">
@@ -8233,7 +8397,7 @@
     </row>
     <row r="22" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="29"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -8258,7 +8422,7 @@
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
-      <c r="AB22" s="18" t="s">
+      <c r="AB22" s="59" t="s">
         <v>185</v>
       </c>
       <c r="AC22" s="10">
@@ -8274,7 +8438,7 @@
     </row>
     <row r="23" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="29"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -8299,7 +8463,7 @@
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
-      <c r="AB23" s="18" t="s">
+      <c r="AB23" s="59" t="s">
         <v>186</v>
       </c>
       <c r="AC23" s="10">
@@ -8315,7 +8479,7 @@
     </row>
     <row r="24" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="29"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -8340,7 +8504,7 @@
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
-      <c r="AB24" s="18" t="s">
+      <c r="AB24" s="59" t="s">
         <v>187</v>
       </c>
       <c r="AC24" s="10">
@@ -8356,7 +8520,7 @@
     </row>
     <row r="25" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-      <c r="B25" s="29"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -8381,7 +8545,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
-      <c r="AB25" s="18" t="s">
+      <c r="AB25" s="59" t="s">
         <v>188</v>
       </c>
       <c r="AC25" s="10">
@@ -8397,7 +8561,7 @@
     </row>
     <row r="26" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-      <c r="B26" s="29"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -8422,7 +8586,9 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
-      <c r="AB26" s="18"/>
+      <c r="AB26" s="59" t="s">
+        <v>189</v>
+      </c>
       <c r="AC26" s="10">
         <v>8</v>
       </c>
@@ -8436,7 +8602,7 @@
     </row>
     <row r="27" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
-      <c r="B27" s="29"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -8461,7 +8627,9 @@
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
-      <c r="AB27" s="18"/>
+      <c r="AB27" s="59" t="s">
+        <v>190</v>
+      </c>
       <c r="AC27" s="10">
         <v>8</v>
       </c>
@@ -8500,7 +8668,7 @@
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
-      <c r="AB28" s="18" t="s">
+      <c r="AB28" s="17" t="s">
         <v>8</v>
       </c>
       <c r="AC28" s="10">
@@ -8530,8 +8698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8617,108 +8785,132 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="G3" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="44" t="s">
+      <c r="AB3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="44" t="s">
+      <c r="AC3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="44" t="s">
+      <c r="AD3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AE3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="G4" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
     </row>
     <row r="5" spans="1:32" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>149</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -8751,9 +8943,7 @@
       <c r="L5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -8767,7 +8957,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="54" t="s">
         <v>179</v>
       </c>
       <c r="AC5" s="10">
@@ -8781,7 +8971,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -8806,7 +8996,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="10" t="s">
+      <c r="AB6" s="54" t="s">
         <v>180</v>
       </c>
       <c r="AC6" s="10">
@@ -8821,7 +9011,7 @@
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -8845,7 +9035,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="10" t="s">
+      <c r="AB7" s="54" t="s">
         <v>181</v>
       </c>
       <c r="AC7" s="10">
@@ -8860,7 +9050,7 @@
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -8884,7 +9074,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="10" t="s">
+      <c r="AB8" s="54" t="s">
         <v>182</v>
       </c>
       <c r="AC8" s="10">
@@ -8897,8 +9087,8 @@
       <c r="AF8" s="10"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -8923,7 +9113,9 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="10"/>
+      <c r="AB9" s="54" t="s">
+        <v>200</v>
+      </c>
       <c r="AC9" s="10">
         <v>8</v>
       </c>
@@ -8960,7 +9152,9 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="10"/>
+      <c r="AB10" s="54" t="s">
+        <v>201</v>
+      </c>
       <c r="AC10" s="10">
         <v>8</v>
       </c>
@@ -8997,7 +9191,9 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="10"/>
+      <c r="AB11" s="54" t="s">
+        <v>202</v>
+      </c>
       <c r="AC11" s="10">
         <v>8</v>
       </c>
@@ -9034,7 +9230,9 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="10"/>
+      <c r="AB12" s="54" t="s">
+        <v>203</v>
+      </c>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -9071,7 +9269,9 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="10"/>
+      <c r="AB13" s="54" t="s">
+        <v>204</v>
+      </c>
       <c r="AC13" s="10">
         <v>8</v>
       </c>
@@ -9145,7 +9345,9 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="10"/>
+      <c r="AB15" s="54" t="s">
+        <v>205</v>
+      </c>
       <c r="AC15" s="10">
         <v>4</v>
       </c>
@@ -9155,7 +9357,7 @@
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
     </row>
-    <row r="16" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>

--- a/Dienynas JAVA 0826.xlsx
+++ b/Dienynas JAVA 0826.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="12960" windowHeight="6300" tabRatio="836" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="12960" windowHeight="6300" tabRatio="836" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1. Tarnyb. stotys" sheetId="2" r:id="rId1"/>
@@ -873,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -973,6 +973,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -991,53 +997,38 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1344,7 +1335,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,46 +1421,46 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="49" t="s">
         <v>74</v>
       </c>
       <c r="O3" s="14"/>
@@ -1485,59 +1476,59 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="45" t="s">
+      <c r="AB3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AC3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="AD3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="49" t="s">
         <v>62</v>
       </c>
       <c r="O4" s="14"/>
@@ -1553,11 +1544,11 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
@@ -1614,7 +1605,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="59" t="s">
+      <c r="AB5" s="51" t="s">
         <v>109</v>
       </c>
       <c r="AC5" s="10">
@@ -1655,7 +1646,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="59" t="s">
+      <c r="AB6" s="51" t="s">
         <v>110</v>
       </c>
       <c r="AC6" s="10">
@@ -1696,7 +1687,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="59" t="s">
+      <c r="AB7" s="51" t="s">
         <v>110</v>
       </c>
       <c r="AC7" s="10">
@@ -1737,7 +1728,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="59" t="s">
+      <c r="AB8" s="51" t="s">
         <v>111</v>
       </c>
       <c r="AC8" s="10">
@@ -1778,7 +1769,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="59" t="s">
+      <c r="AB9" s="51" t="s">
         <v>112</v>
       </c>
       <c r="AC9" s="10">
@@ -1819,7 +1810,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="59" t="s">
+      <c r="AB10" s="51" t="s">
         <v>113</v>
       </c>
       <c r="AC10" s="10">
@@ -1860,7 +1851,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="59" t="s">
+      <c r="AB11" s="51" t="s">
         <v>114</v>
       </c>
       <c r="AC11" s="10">
@@ -1901,7 +1892,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="59" t="s">
+      <c r="AB12" s="51" t="s">
         <v>115</v>
       </c>
       <c r="AC12" s="10">
@@ -1942,7 +1933,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="59" t="s">
+      <c r="AB13" s="51" t="s">
         <v>117</v>
       </c>
       <c r="AC13" s="10">
@@ -1983,7 +1974,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="59" t="s">
+      <c r="AB14" s="51" t="s">
         <v>118</v>
       </c>
       <c r="AC14" s="10">
@@ -2024,7 +2015,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="59" t="s">
+      <c r="AB15" s="51" t="s">
         <v>120</v>
       </c>
       <c r="AC15" s="10">
@@ -2065,7 +2056,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AB16" s="59" t="s">
+      <c r="AB16" s="51" t="s">
         <v>147</v>
       </c>
       <c r="AC16" s="10">
@@ -2106,7 +2097,7 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AB17" s="59" t="s">
+      <c r="AB17" s="51" t="s">
         <v>121</v>
       </c>
       <c r="AC17" s="10">
@@ -2177,7 +2168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -2205,43 +2196,43 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="41">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="41">
         <v>2</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="41">
         <v>5</v>
       </c>
       <c r="H2" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="41">
         <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="41">
         <v>7</v>
       </c>
       <c r="L2" t="s">
         <v>181</v>
       </c>
-      <c r="M2" s="53">
+      <c r="M2" s="41">
         <v>8</v>
       </c>
       <c r="N2" t="s">
         <v>203</v>
       </c>
-      <c r="O2" s="62">
+      <c r="O2" s="42">
         <v>8</v>
       </c>
       <c r="R2" s="33"/>
@@ -2250,43 +2241,43 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="41">
         <v>2</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="41">
         <v>4</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="41">
         <v>5</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="41">
         <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="41">
         <v>7</v>
       </c>
       <c r="L3" t="s">
         <v>182</v>
       </c>
-      <c r="M3" s="53">
+      <c r="M3" s="41">
         <v>8</v>
       </c>
       <c r="N3" t="s">
         <v>204</v>
       </c>
-      <c r="O3" s="62">
+      <c r="O3" s="42">
         <v>8</v>
       </c>
       <c r="R3" s="33"/>
@@ -2295,43 +2286,43 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="41">
         <v>2</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="41">
         <v>4</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="41">
         <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="41">
         <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>164</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="41">
         <v>7</v>
       </c>
       <c r="L4" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="M4" s="53">
+      <c r="M4" s="41">
         <v>7</v>
       </c>
       <c r="N4" t="s">
         <v>205</v>
       </c>
-      <c r="O4" s="62">
+      <c r="O4" s="42">
         <v>8</v>
       </c>
       <c r="R4" s="33"/>
@@ -2340,37 +2331,37 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="41">
         <v>2</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="41">
         <v>4</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="41">
         <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="41">
         <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="41">
         <v>7</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="M5" s="53">
+      <c r="M5" s="41">
         <v>7</v>
       </c>
       <c r="R5" s="33"/>
@@ -2379,37 +2370,37 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="41">
         <v>2</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="41">
         <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="41">
         <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="41">
         <v>6</v>
       </c>
       <c r="J6" t="s">
         <v>166</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="41">
         <v>7</v>
       </c>
       <c r="L6" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="41">
         <v>7</v>
       </c>
       <c r="R6" s="33"/>
@@ -2418,31 +2409,31 @@
       <c r="D7" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="41">
         <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="41">
         <v>1</v>
       </c>
       <c r="H7" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="41">
         <v>6</v>
       </c>
       <c r="J7" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="41">
         <v>7</v>
       </c>
       <c r="L7" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="M7" s="53">
+      <c r="M7" s="41">
         <v>7</v>
       </c>
       <c r="R7" s="33"/>
@@ -2451,31 +2442,31 @@
       <c r="D8" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="41">
         <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="41">
         <v>1</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="41">
         <v>6</v>
       </c>
       <c r="J8" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="41">
         <v>7</v>
       </c>
       <c r="L8" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="41">
         <v>7</v>
       </c>
       <c r="R8" s="33"/>
@@ -2484,31 +2475,31 @@
       <c r="D9" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="41">
         <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="41">
         <v>1</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="41">
         <v>6</v>
       </c>
       <c r="J9" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="41">
         <v>7</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="41">
         <v>7</v>
       </c>
       <c r="R9" s="33"/>
@@ -2517,31 +2508,31 @@
       <c r="D10" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="41">
         <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="41">
         <v>1</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="41">
         <v>6</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="41">
         <v>7</v>
       </c>
       <c r="L10" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="53">
+      <c r="M10" s="41">
         <v>7</v>
       </c>
       <c r="R10" s="33"/>
@@ -2550,31 +2541,31 @@
       <c r="D11" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="41">
         <v>4</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="41">
         <v>1</v>
       </c>
       <c r="H11" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="41">
         <v>6</v>
       </c>
       <c r="J11" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="41">
         <v>7</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="41">
         <v>7</v>
       </c>
       <c r="R11" s="33"/>
@@ -2583,31 +2574,31 @@
       <c r="D12" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="41">
         <v>4</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="41">
         <v>1</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="41">
         <v>6</v>
       </c>
       <c r="J12" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="41">
         <v>7</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="M12" s="53">
+      <c r="M12" s="41">
         <v>4</v>
       </c>
       <c r="R12" s="33"/>
@@ -2616,31 +2607,31 @@
       <c r="D13" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="41">
         <v>4</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="41">
         <v>1</v>
       </c>
       <c r="H13" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="41">
         <v>6</v>
       </c>
       <c r="J13" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="41">
         <v>4</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="41">
         <v>4</v>
       </c>
       <c r="R13" s="33"/>
@@ -2649,31 +2640,31 @@
       <c r="D14" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="41">
         <v>4</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="41">
         <v>1</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="41">
         <v>6</v>
       </c>
       <c r="J14" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="41">
         <v>4</v>
       </c>
       <c r="L14" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="41">
         <v>4</v>
       </c>
     </row>
@@ -2681,31 +2672,31 @@
       <c r="D15" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="41">
         <v>4</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="41">
         <v>1</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="41">
         <v>6</v>
       </c>
       <c r="J15" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="41">
         <v>2</v>
       </c>
       <c r="L15" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="41">
         <v>4</v>
       </c>
     </row>
@@ -2713,31 +2704,31 @@
       <c r="D16" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="41">
         <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="41">
         <v>1</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="41">
         <v>6</v>
       </c>
       <c r="J16" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="41">
         <v>2</v>
       </c>
       <c r="L16" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="M16" s="53">
+      <c r="M16" s="41">
         <v>4</v>
       </c>
     </row>
@@ -2745,31 +2736,31 @@
       <c r="D17" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="41">
         <v>5</v>
       </c>
       <c r="F17" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="41">
         <v>3</v>
       </c>
       <c r="H17" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="41">
         <v>6</v>
       </c>
       <c r="J17" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="41">
         <v>2</v>
       </c>
       <c r="L17" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="41">
         <v>4</v>
       </c>
     </row>
@@ -2777,31 +2768,31 @@
       <c r="D18" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="41">
         <v>5</v>
       </c>
       <c r="F18" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="41">
         <v>3</v>
       </c>
       <c r="H18" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="41">
         <v>7</v>
       </c>
       <c r="J18" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="41">
         <v>2</v>
       </c>
       <c r="L18" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="M18" s="53">
+      <c r="M18" s="41">
         <v>2</v>
       </c>
     </row>
@@ -2809,31 +2800,31 @@
       <c r="D19" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="41">
         <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="41">
         <v>3</v>
       </c>
       <c r="H19" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="41">
         <v>7</v>
       </c>
       <c r="J19" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="41">
         <v>8</v>
       </c>
       <c r="L19" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="M19" s="53">
+      <c r="M19" s="41">
         <v>5</v>
       </c>
     </row>
@@ -2841,31 +2832,31 @@
       <c r="D20" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="41">
         <v>5</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="41">
         <v>3</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="41">
         <v>7</v>
       </c>
       <c r="J20" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="41">
         <v>8</v>
       </c>
       <c r="L20" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="41">
         <v>5</v>
       </c>
     </row>
@@ -2873,26 +2864,26 @@
       <c r="D21" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="41">
         <v>5</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="41">
         <v>3</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I21" s="53">
+      <c r="I21" s="41">
         <v>7</v>
       </c>
       <c r="J21" s="35"/>
       <c r="L21" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="M21" s="53">
+      <c r="M21" s="41">
         <v>8</v>
       </c>
     </row>
@@ -2900,20 +2891,20 @@
       <c r="D22" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="41">
         <v>5</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="41">
         <v>3</v>
       </c>
       <c r="J22" s="35"/>
       <c r="L22" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="M22" s="53">
+      <c r="M22" s="41">
         <v>8</v>
       </c>
     </row>
@@ -2921,13 +2912,13 @@
       <c r="F23" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="41">
         <v>3</v>
       </c>
       <c r="L23" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="M23" s="53">
+      <c r="M23" s="41">
         <v>8</v>
       </c>
     </row>
@@ -2935,7 +2926,7 @@
       <c r="F24" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="41">
         <v>3</v>
       </c>
     </row>
@@ -2949,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3037,13 +3028,13 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="52" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="49" t="s">
@@ -3061,19 +3052,19 @@
       <c r="H3" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="49" t="s">
         <v>67</v>
       </c>
       <c r="N3" s="14"/>
@@ -3090,26 +3081,26 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="45" t="s">
+      <c r="AB3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AC3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="AD3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="51" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="53" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="49" t="s">
@@ -3127,19 +3118,19 @@
       <c r="H4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>86</v>
       </c>
       <c r="N4" s="14"/>
@@ -3156,11 +3147,11 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
@@ -3169,37 +3160,37 @@
       <c r="B5" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="17" t="s">
+      <c r="C5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="51" t="s">
         <v>77</v>
       </c>
       <c r="N5" s="17"/>
@@ -3215,7 +3206,7 @@
       <c r="X5" s="17"/>
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
-      <c r="AB5" s="47" t="s">
+      <c r="AB5" s="51" t="s">
         <v>89</v>
       </c>
       <c r="AC5" s="10">
@@ -3256,7 +3247,7 @@
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
-      <c r="AB6" s="47" t="s">
+      <c r="AB6" s="51" t="s">
         <v>89</v>
       </c>
       <c r="AC6" s="10">
@@ -3297,7 +3288,7 @@
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
-      <c r="AB7" s="47" t="s">
+      <c r="AB7" s="51" t="s">
         <v>90</v>
       </c>
       <c r="AC7" s="10">
@@ -3338,7 +3329,7 @@
       <c r="X8" s="17"/>
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
-      <c r="AB8" s="59" t="s">
+      <c r="AB8" s="51" t="s">
         <v>175</v>
       </c>
       <c r="AC8" s="10">
@@ -3379,7 +3370,7 @@
       <c r="X9" s="17"/>
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
-      <c r="AB9" s="47" t="s">
+      <c r="AB9" s="51" t="s">
         <v>91</v>
       </c>
       <c r="AC9" s="10">
@@ -3420,7 +3411,7 @@
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
-      <c r="AB10" s="47" t="s">
+      <c r="AB10" s="51" t="s">
         <v>92</v>
       </c>
       <c r="AC10" s="10">
@@ -3461,7 +3452,7 @@
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
-      <c r="AB11" s="59" t="s">
+      <c r="AB11" s="51" t="s">
         <v>176</v>
       </c>
       <c r="AC11" s="10">
@@ -3502,7 +3493,7 @@
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
-      <c r="AB12" s="59" t="s">
+      <c r="AB12" s="51" t="s">
         <v>197</v>
       </c>
       <c r="AC12" s="10">
@@ -3543,7 +3534,7 @@
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
-      <c r="AB13" s="47" t="s">
+      <c r="AB13" s="51" t="s">
         <v>93</v>
       </c>
       <c r="AC13" s="10">
@@ -3584,7 +3575,7 @@
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
-      <c r="AB14" s="59" t="s">
+      <c r="AB14" s="51" t="s">
         <v>177</v>
       </c>
       <c r="AC14" s="10">
@@ -3625,7 +3616,7 @@
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
-      <c r="AB15" s="47" t="s">
+      <c r="AB15" s="51" t="s">
         <v>97</v>
       </c>
       <c r="AC15" s="10">
@@ -3666,7 +3657,7 @@
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
-      <c r="AB16" s="59" t="s">
+      <c r="AB16" s="51" t="s">
         <v>178</v>
       </c>
       <c r="AC16" s="10">
@@ -3736,7 +3727,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,46 +3813,46 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="49" t="s">
         <v>75</v>
       </c>
       <c r="O3" s="14"/>
@@ -3877,59 +3868,59 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AC3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="AD3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="49" t="s">
         <v>61</v>
       </c>
       <c r="O4" s="14"/>
@@ -3945,11 +3936,11 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
     </row>
     <row r="5" spans="1:32" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -4006,7 +3997,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="54" t="s">
+      <c r="AB5" s="55" t="s">
         <v>122</v>
       </c>
       <c r="AC5" s="10">
@@ -4047,7 +4038,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="54" t="s">
+      <c r="AB6" s="55" t="s">
         <v>123</v>
       </c>
       <c r="AC6" s="10">
@@ -4088,7 +4079,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="54" t="s">
+      <c r="AB7" s="55" t="s">
         <v>123</v>
       </c>
       <c r="AC7" s="10">
@@ -4129,7 +4120,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="54" t="s">
+      <c r="AB8" s="55" t="s">
         <v>124</v>
       </c>
       <c r="AC8" s="10">
@@ -4170,7 +4161,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="54" t="s">
+      <c r="AB9" s="55" t="s">
         <v>125</v>
       </c>
       <c r="AC9" s="10">
@@ -4211,7 +4202,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="54" t="s">
+      <c r="AB10" s="55" t="s">
         <v>126</v>
       </c>
       <c r="AC10" s="10">
@@ -4252,7 +4243,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="54" t="s">
+      <c r="AB11" s="55" t="s">
         <v>127</v>
       </c>
       <c r="AC11" s="10" t="s">
@@ -4293,7 +4284,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="54" t="s">
+      <c r="AB12" s="55" t="s">
         <v>128</v>
       </c>
       <c r="AC12" s="10">
@@ -4334,7 +4325,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="54" t="s">
+      <c r="AB13" s="55" t="s">
         <v>129</v>
       </c>
       <c r="AC13" s="10">
@@ -4375,7 +4366,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="54" t="s">
+      <c r="AB14" s="55" t="s">
         <v>130</v>
       </c>
       <c r="AC14" s="10">
@@ -4416,7 +4407,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="54" t="s">
+      <c r="AB15" s="55" t="s">
         <v>131</v>
       </c>
       <c r="AC15" s="10">
@@ -4457,7 +4448,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AB16" s="54" t="s">
+      <c r="AB16" s="55" t="s">
         <v>132</v>
       </c>
       <c r="AC16" s="10">
@@ -4498,7 +4489,7 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AB17" s="54" t="s">
+      <c r="AB17" s="55" t="s">
         <v>133</v>
       </c>
       <c r="AC17" s="10">
@@ -4539,7 +4530,7 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-      <c r="AB18" s="10" t="s">
+      <c r="AB18" s="55" t="s">
         <v>8</v>
       </c>
       <c r="AC18" s="10">
@@ -4569,8 +4560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:X4"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4656,113 +4647,113 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="55">
+      <c r="Q3" s="56">
         <v>12</v>
       </c>
-      <c r="R3" s="55">
+      <c r="R3" s="56">
         <v>12</v>
       </c>
-      <c r="S3" s="55" t="s">
+      <c r="S3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="T3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="55" t="s">
+      <c r="U3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="55" t="s">
+      <c r="V3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="W3" s="55" t="s">
+      <c r="W3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="X3" s="55" t="s">
+      <c r="X3" s="56" t="s">
         <v>67</v>
       </c>
       <c r="Y3" s="32"/>
       <c r="Z3" s="32"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AC3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="AD3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="56" t="s">
         <v>73</v>
       </c>
       <c r="H4" s="57">
@@ -4783,7 +4774,7 @@
       <c r="M4" s="57">
         <v>17</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="56" t="s">
         <v>81</v>
       </c>
       <c r="O4" s="57">
@@ -4807,23 +4798,23 @@
       <c r="U4" s="57">
         <v>20</v>
       </c>
-      <c r="V4" s="55">
+      <c r="V4" s="56">
         <v>21</v>
       </c>
-      <c r="W4" s="55">
+      <c r="W4" s="56">
         <v>22</v>
       </c>
-      <c r="X4" s="55">
+      <c r="X4" s="56">
         <v>23</v>
       </c>
       <c r="Y4" s="32"/>
       <c r="Z4" s="32"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -4900,7 +4891,7 @@
       </c>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="54" t="s">
+      <c r="AB5" s="55" t="s">
         <v>98</v>
       </c>
       <c r="AC5" s="10">
@@ -4941,7 +4932,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="54" t="s">
+      <c r="AB6" s="55" t="s">
         <v>94</v>
       </c>
       <c r="AC6" s="10">
@@ -4982,7 +4973,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="54" t="s">
+      <c r="AB7" s="55" t="s">
         <v>143</v>
       </c>
       <c r="AC7" s="10">
@@ -5023,7 +5014,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="54" t="s">
+      <c r="AB8" s="55" t="s">
         <v>173</v>
       </c>
       <c r="AC8" s="10">
@@ -5064,7 +5055,7 @@
       <c r="X9" s="30"/>
       <c r="Y9" s="30"/>
       <c r="Z9" s="30"/>
-      <c r="AB9" s="56" t="s">
+      <c r="AB9" s="58" t="s">
         <v>95</v>
       </c>
       <c r="AC9" s="30">
@@ -5106,7 +5097,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
-      <c r="AB10" s="54" t="s">
+      <c r="AB10" s="55" t="s">
         <v>144</v>
       </c>
       <c r="AC10" s="10">
@@ -5148,7 +5139,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
-      <c r="AB11" s="54" t="s">
+      <c r="AB11" s="55" t="s">
         <v>96</v>
       </c>
       <c r="AC11" s="10">
@@ -5190,7 +5181,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
-      <c r="AB12" s="54" t="s">
+      <c r="AB12" s="55" t="s">
         <v>174</v>
       </c>
       <c r="AC12" s="10">
@@ -5232,7 +5223,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
-      <c r="AB13" s="54" t="s">
+      <c r="AB13" s="55" t="s">
         <v>99</v>
       </c>
       <c r="AC13" s="10">
@@ -5274,7 +5265,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
-      <c r="AB14" s="58" t="s">
+      <c r="AB14" s="59" t="s">
         <v>100</v>
       </c>
       <c r="AC14" s="10">
@@ -5316,7 +5307,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
-      <c r="AB15" s="54" t="s">
+      <c r="AB15" s="55" t="s">
         <v>138</v>
       </c>
       <c r="AC15" s="10">
@@ -5358,7 +5349,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
-      <c r="AB16" s="54" t="s">
+      <c r="AB16" s="55" t="s">
         <v>101</v>
       </c>
       <c r="AC16" s="10">
@@ -5400,7 +5391,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
-      <c r="AB17" s="54" t="s">
+      <c r="AB17" s="55" t="s">
         <v>139</v>
       </c>
       <c r="AC17" s="10">
@@ -5442,7 +5433,7 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
-      <c r="AB18" s="54" t="s">
+      <c r="AB18" s="55" t="s">
         <v>140</v>
       </c>
       <c r="AC18" s="10">
@@ -5484,7 +5475,7 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
-      <c r="AB19" s="54" t="s">
+      <c r="AB19" s="55" t="s">
         <v>141</v>
       </c>
       <c r="AC19" s="10">
@@ -5526,7 +5517,7 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
-      <c r="AB20" s="54" t="s">
+      <c r="AB20" s="55" t="s">
         <v>142</v>
       </c>
       <c r="AC20" s="10">
@@ -5568,7 +5559,7 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
-      <c r="AB21" s="54" t="s">
+      <c r="AB21" s="55" t="s">
         <v>191</v>
       </c>
       <c r="AC21" s="10">
@@ -5610,7 +5601,7 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
-      <c r="AB22" s="54" t="s">
+      <c r="AB22" s="55" t="s">
         <v>192</v>
       </c>
       <c r="AC22" s="10">
@@ -5652,7 +5643,7 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
-      <c r="AB23" s="54" t="s">
+      <c r="AB23" s="55" t="s">
         <v>193</v>
       </c>
       <c r="AC23" s="10">
@@ -5694,7 +5685,7 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
-      <c r="AB24" s="54" t="s">
+      <c r="AB24" s="55" t="s">
         <v>194</v>
       </c>
       <c r="AC24" s="10">
@@ -5736,7 +5727,7 @@
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
-      <c r="AB25" s="54" t="s">
+      <c r="AB25" s="55" t="s">
         <v>195</v>
       </c>
       <c r="AC25" s="10">
@@ -5778,7 +5769,7 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
-      <c r="AB26" s="54" t="s">
+      <c r="AB26" s="55" t="s">
         <v>196</v>
       </c>
       <c r="AC26" s="10">
@@ -5850,7 +5841,7 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M4"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5936,43 +5927,43 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="56">
         <v>10</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="56">
         <v>10</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="56">
         <v>10</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="56" t="s">
         <v>67</v>
       </c>
       <c r="N3" s="9"/>
@@ -5989,56 +5980,56 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AC3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="AD3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="57">
         <v>27</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="56">
         <v>30</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="56" t="s">
         <v>69</v>
       </c>
       <c r="L4" s="57">
         <v>27</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4" s="56">
         <v>28</v>
       </c>
       <c r="N4" s="9"/>
@@ -6055,11 +6046,11 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
     </row>
     <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -6068,37 +6059,37 @@
       <c r="B5" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="C5" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="55" t="s">
         <v>77</v>
       </c>
       <c r="N5" s="10"/>
@@ -6114,7 +6105,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="54" t="s">
+      <c r="AB5" s="55" t="s">
         <v>102</v>
       </c>
       <c r="AC5" s="10">
@@ -6155,7 +6146,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="54" t="s">
+      <c r="AB6" s="55" t="s">
         <v>103</v>
       </c>
       <c r="AC6" s="10">
@@ -6196,7 +6187,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="54" t="s">
+      <c r="AB7" s="55" t="s">
         <v>145</v>
       </c>
       <c r="AC7" s="10">
@@ -6237,7 +6228,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="54" t="s">
+      <c r="AB8" s="55" t="s">
         <v>104</v>
       </c>
       <c r="AC8" s="10">
@@ -6278,7 +6269,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="54" t="s">
+      <c r="AB9" s="55" t="s">
         <v>146</v>
       </c>
       <c r="AC9" s="10">
@@ -6319,7 +6310,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="54" t="s">
+      <c r="AB10" s="55" t="s">
         <v>105</v>
       </c>
       <c r="AC10" s="10">
@@ -6360,7 +6351,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="54" t="s">
+      <c r="AB11" s="55" t="s">
         <v>198</v>
       </c>
       <c r="AC11" s="10">
@@ -6401,7 +6392,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="54" t="s">
+      <c r="AB12" s="55" t="s">
         <v>106</v>
       </c>
       <c r="AC12" s="10">
@@ -6442,7 +6433,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="54" t="s">
+      <c r="AB13" s="55" t="s">
         <v>107</v>
       </c>
       <c r="AC13" s="10">
@@ -6483,7 +6474,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="54" t="s">
+      <c r="AB14" s="55" t="s">
         <v>108</v>
       </c>
       <c r="AC14" s="10">
@@ -6524,7 +6515,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="54" t="s">
+      <c r="AB15" s="55" t="s">
         <v>199</v>
       </c>
       <c r="AC15" s="10">
@@ -6596,7 +6587,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6682,46 +6673,46 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="49" t="s">
         <v>75</v>
       </c>
       <c r="O3" s="14"/>
@@ -6737,59 +6728,59 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AC3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="AD3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="49" t="s">
         <v>63</v>
       </c>
       <c r="O4" s="14"/>
@@ -6805,11 +6796,11 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -6866,7 +6857,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="54" t="s">
+      <c r="AB5" s="55" t="s">
         <v>134</v>
       </c>
       <c r="AC5" s="10">
@@ -6907,7 +6898,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="54" t="s">
+      <c r="AB6" s="55" t="s">
         <v>135</v>
       </c>
       <c r="AC6" s="10">
@@ -6948,7 +6939,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="54" t="s">
+      <c r="AB7" s="55" t="s">
         <v>136</v>
       </c>
       <c r="AC7" s="10">
@@ -6989,7 +6980,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="54" t="s">
+      <c r="AB8" s="55" t="s">
         <v>137</v>
       </c>
       <c r="AC8" s="10">
@@ -7030,7 +7021,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="54" t="s">
+      <c r="AB9" s="55" t="s">
         <v>150</v>
       </c>
       <c r="AC9" s="10">
@@ -7071,7 +7062,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="54" t="s">
+      <c r="AB10" s="55" t="s">
         <v>151</v>
       </c>
       <c r="AC10" s="10">
@@ -7112,7 +7103,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="54" t="s">
+      <c r="AB11" s="55" t="s">
         <v>152</v>
       </c>
       <c r="AC11" s="10">
@@ -7153,7 +7144,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="54" t="s">
+      <c r="AB12" s="55" t="s">
         <v>153</v>
       </c>
       <c r="AC12" s="10">
@@ -7194,7 +7185,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="54" t="s">
+      <c r="AB13" s="55" t="s">
         <v>154</v>
       </c>
       <c r="AC13" s="10">
@@ -7235,7 +7226,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="54" t="s">
+      <c r="AB14" s="55" t="s">
         <v>155</v>
       </c>
       <c r="AC14" s="10">
@@ -7276,7 +7267,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="54" t="s">
+      <c r="AB15" s="55" t="s">
         <v>156</v>
       </c>
       <c r="AC15" s="10">
@@ -7317,7 +7308,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AB16" s="54" t="s">
+      <c r="AB16" s="55" t="s">
         <v>157</v>
       </c>
       <c r="AC16" s="10">
@@ -7389,7 +7380,7 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7475,178 +7466,178 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="R3" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="60" t="s">
+      <c r="S3" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="60" t="s">
+      <c r="T3" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="60" t="s">
+      <c r="U3" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="60" t="s">
+      <c r="V3" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="W3" s="60" t="s">
+      <c r="W3" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="X3" s="60" t="s">
+      <c r="X3" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y3" s="60" t="s">
+      <c r="Y3" s="49" t="s">
         <v>67</v>
       </c>
       <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="45" t="s">
+      <c r="AB3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AC3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="AD3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="60" t="s">
+      <c r="S4" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="60" t="s">
+      <c r="T4" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="W4" s="60" t="s">
+      <c r="W4" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="X4" s="60" t="s">
+      <c r="X4" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="Y4" s="60" t="s">
+      <c r="Y4" s="49" t="s">
         <v>116</v>
       </c>
       <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -7725,7 +7716,7 @@
         <v>77</v>
       </c>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="59" t="s">
+      <c r="AB5" s="51" t="s">
         <v>158</v>
       </c>
       <c r="AC5" s="10">
@@ -7766,7 +7757,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="59" t="s">
+      <c r="AB6" s="51" t="s">
         <v>159</v>
       </c>
       <c r="AC6" s="10">
@@ -7807,7 +7798,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="59" t="s">
+      <c r="AB7" s="51" t="s">
         <v>160</v>
       </c>
       <c r="AC7" s="10">
@@ -7848,7 +7839,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="59" t="s">
+      <c r="AB8" s="51" t="s">
         <v>161</v>
       </c>
       <c r="AC8" s="10">
@@ -7889,7 +7880,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="59" t="s">
+      <c r="AB9" s="51" t="s">
         <v>162</v>
       </c>
       <c r="AC9" s="10">
@@ -7930,7 +7921,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="59" t="s">
+      <c r="AB10" s="51" t="s">
         <v>163</v>
       </c>
       <c r="AC10" s="10">
@@ -7971,7 +7962,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="59" t="s">
+      <c r="AB11" s="51" t="s">
         <v>164</v>
       </c>
       <c r="AC11" s="10">
@@ -8012,7 +8003,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="59" t="s">
+      <c r="AB12" s="51" t="s">
         <v>165</v>
       </c>
       <c r="AC12" s="10">
@@ -8053,7 +8044,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="59" t="s">
+      <c r="AB13" s="51" t="s">
         <v>166</v>
       </c>
       <c r="AC13" s="10">
@@ -8094,7 +8085,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="59" t="s">
+      <c r="AB14" s="51" t="s">
         <v>167</v>
       </c>
       <c r="AC14" s="10">
@@ -8135,7 +8126,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="59" t="s">
+      <c r="AB15" s="51" t="s">
         <v>168</v>
       </c>
       <c r="AC15" s="10">
@@ -8176,7 +8167,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AB16" s="59" t="s">
+      <c r="AB16" s="51" t="s">
         <v>169</v>
       </c>
       <c r="AC16" s="10">
@@ -8217,7 +8208,7 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AB17" s="59" t="s">
+      <c r="AB17" s="51" t="s">
         <v>170</v>
       </c>
       <c r="AC17" s="10">
@@ -8258,7 +8249,7 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-      <c r="AB18" s="59" t="s">
+      <c r="AB18" s="51" t="s">
         <v>171</v>
       </c>
       <c r="AC18" s="10">
@@ -8299,7 +8290,7 @@
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
-      <c r="AB19" s="59" t="s">
+      <c r="AB19" s="51" t="s">
         <v>172</v>
       </c>
       <c r="AC19" s="10">
@@ -8340,7 +8331,7 @@
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
-      <c r="AB20" s="59" t="s">
+      <c r="AB20" s="51" t="s">
         <v>183</v>
       </c>
       <c r="AC20" s="10">
@@ -8381,7 +8372,7 @@
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
-      <c r="AB21" s="59" t="s">
+      <c r="AB21" s="51" t="s">
         <v>184</v>
       </c>
       <c r="AC21" s="10">
@@ -8422,7 +8413,7 @@
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
-      <c r="AB22" s="59" t="s">
+      <c r="AB22" s="51" t="s">
         <v>185</v>
       </c>
       <c r="AC22" s="10">
@@ -8463,7 +8454,7 @@
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
-      <c r="AB23" s="59" t="s">
+      <c r="AB23" s="51" t="s">
         <v>186</v>
       </c>
       <c r="AC23" s="10">
@@ -8504,7 +8495,7 @@
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
-      <c r="AB24" s="59" t="s">
+      <c r="AB24" s="51" t="s">
         <v>187</v>
       </c>
       <c r="AC24" s="10">
@@ -8545,7 +8536,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
-      <c r="AB25" s="59" t="s">
+      <c r="AB25" s="51" t="s">
         <v>188</v>
       </c>
       <c r="AC25" s="10">
@@ -8586,7 +8577,7 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
-      <c r="AB26" s="59" t="s">
+      <c r="AB26" s="51" t="s">
         <v>189</v>
       </c>
       <c r="AC26" s="10">
@@ -8627,7 +8618,7 @@
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
-      <c r="AB27" s="59" t="s">
+      <c r="AB27" s="51" t="s">
         <v>190</v>
       </c>
       <c r="AC27" s="10">
@@ -8698,8 +8689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8785,40 +8776,40 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="49" t="s">
         <v>68</v>
       </c>
       <c r="M3" s="14"/>
@@ -8836,53 +8827,53 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AC3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="AD3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="49" t="s">
         <v>71</v>
       </c>
       <c r="M4" s="14"/>
@@ -8900,11 +8891,11 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
     </row>
     <row r="5" spans="1:32" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -8957,7 +8948,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="54" t="s">
+      <c r="AB5" s="55" t="s">
         <v>179</v>
       </c>
       <c r="AC5" s="10">
@@ -8996,7 +8987,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="54" t="s">
+      <c r="AB6" s="55" t="s">
         <v>180</v>
       </c>
       <c r="AC6" s="10">
@@ -9035,7 +9026,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="54" t="s">
+      <c r="AB7" s="55" t="s">
         <v>181</v>
       </c>
       <c r="AC7" s="10">
@@ -9074,7 +9065,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="54" t="s">
+      <c r="AB8" s="55" t="s">
         <v>182</v>
       </c>
       <c r="AC8" s="10">
@@ -9113,7 +9104,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="54" t="s">
+      <c r="AB9" s="55" t="s">
         <v>200</v>
       </c>
       <c r="AC9" s="10">
@@ -9152,7 +9143,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="54" t="s">
+      <c r="AB10" s="55" t="s">
         <v>201</v>
       </c>
       <c r="AC10" s="10">
@@ -9191,7 +9182,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="54" t="s">
+      <c r="AB11" s="55" t="s">
         <v>202</v>
       </c>
       <c r="AC11" s="10">
@@ -9230,7 +9221,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="54" t="s">
+      <c r="AB12" s="55" t="s">
         <v>203</v>
       </c>
       <c r="AC12" s="10">
@@ -9269,7 +9260,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="54" t="s">
+      <c r="AB13" s="55" t="s">
         <v>204</v>
       </c>
       <c r="AC13" s="10">
@@ -9308,7 +9299,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="10"/>
+      <c r="AB14" s="55"/>
       <c r="AC14" s="10">
         <v>8</v>
       </c>
@@ -9345,7 +9336,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="54" t="s">
+      <c r="AB15" s="55" t="s">
         <v>205</v>
       </c>
       <c r="AC15" s="10">
